--- a/rasmus after.xlsx
+++ b/rasmus after.xlsx
@@ -1099,7 +1099,7 @@
     <t>LINK</t>
   </si>
   <si>
-    <t>Head of UserTeam, Norway  Company</t>
+    <t>Head of User_Team, Norway  Company</t>
   </si>
   <si>
     <t>Head of Service_Operation Team,  Sweden Company</t>
@@ -1108,7 +1108,7 @@
     <t>Head of Service_Operation  Germany</t>
   </si>
   <si>
-    <t>Head of UserDevelopment Denmark</t>
+    <t>Head of User_Development Denmark</t>
   </si>
   <si>
     <t>Head of Network_Development_Team</t>
@@ -1132,7 +1132,7 @@
     <t>Head of Market Expansion  Planning &amp; Expert_Program_Management</t>
   </si>
   <si>
-    <t>Head of UserDevelopment Germany</t>
+    <t>Head of User_Development Germany</t>
   </si>
   <si>
     <t>Head of Digital Support PMO Team  &amp; Lead_Program_Manager</t>
@@ -1141,16 +1141,16 @@
     <t>Head of Service_Operation  Denmark</t>
   </si>
   <si>
-    <t>Head of UserOperation Germany</t>
+    <t>Head of User_Operation Germany</t>
   </si>
   <si>
     <t>Event_Manager</t>
   </si>
   <si>
-    <t>Head of Europe UserOperation  Department</t>
-  </si>
-  <si>
-    <t>Head of UserRelations Team  &amp; Lead Analyst, Market &amp; UserResearch</t>
+    <t>Head of Europe User_Operation  Department</t>
+  </si>
+  <si>
+    <t>Head of User_Relations Team  &amp; Lead Analyst, Market &amp; User_Research</t>
   </si>
   <si>
     <t>Head_of_Construction_Management_Team_&amp;_Retail_Construction_Project_Manager</t>
@@ -1171,7 +1171,7 @@
     <t>Country_General_Manager_Sweden_Company</t>
   </si>
   <si>
-    <t>Head of UserOperation Sweden</t>
+    <t>Head of User_Operation Sweden</t>
   </si>
   <si>
     <t>Head of Service_Operation Netherlands</t>
@@ -1189,10 +1189,10 @@
     <t>Head of Business Development  Team &amp; Lead_Business_Development</t>
   </si>
   <si>
-    <t>Head of UserOperation Denmark</t>
-  </si>
-  <si>
-    <t>UserRelationship Manager  Netherlands</t>
+    <t>Head of User_Operation Denmark</t>
+  </si>
+  <si>
+    <t>User_Relationship Manager  Netherlands</t>
   </si>
   <si>
     <t>Country_General_Manager_Nertherland_Company</t>
@@ -1207,7 +1207,7 @@
     <t>Head_of_Europe_Project_Management_&amp;_Enabling_Department_&amp;_Expert_Business_Development</t>
   </si>
   <si>
-    <t>Head of UserDevelopment  Netherlands</t>
+    <t>Head of User_Development  Netherlands</t>
   </si>
   <si>
     <t>Lead_Analyst_Business_Planning</t>
@@ -1216,7 +1216,7 @@
     <t>Head_of_Europe_Commercial_Operation_Department</t>
   </si>
   <si>
-    <t>Head of UserOperation  Netherlands</t>
+    <t>Head of User_Operation  Netherlands</t>
   </si>
   <si>
     <t>Head_of_Service_&amp;_Product_PMO_Team_&amp;_Expert_Business_Planning</t>
@@ -1228,7 +1228,7 @@
     <t>Analyst_Business_Planning</t>
   </si>
   <si>
-    <t>Analyst, Market &amp; User Research</t>
+    <t>Analyst, Market &amp; User_ Research</t>
   </si>
   <si>
     <t>Associate_PMO</t>
@@ -1249,7 +1249,7 @@
     <t>Country General Manager of  United_Kingdom Company</t>
   </si>
   <si>
-    <t>Digital Marketing Specialist,  UserDevelopment</t>
+    <t>Digital Marketing Specialist,  User_Development</t>
   </si>
   <si>
     <t>Europe_NIO_House_Manager</t>
@@ -1312,7 +1312,7 @@
     <t>Lead_Business_Operation_Management</t>
   </si>
   <si>
-    <t>Lead_Content_Marketing_Planning</t>
+    <t>Lead_Content _Marketing_Planning</t>
   </si>
   <si>
     <t>Lead_PMO</t>
@@ -1333,7 +1333,7 @@
     <t>Program_Specialist</t>
   </si>
   <si>
-    <t>Project Management - User Development</t>
+    <t>Project Management - User_ Development</t>
   </si>
   <si>
     <t>Real_Estate_Specialist</t>
@@ -1417,7 +1417,7 @@
     <t>Employee_Communications_Specialist</t>
   </si>
   <si>
-    <t>Event &amp; UserRelationship  Manager Denmark</t>
+    <t>Event &amp; User_Relationship  Manager Denmark</t>
   </si>
   <si>
     <t>Fellow</t>
@@ -1438,7 +1438,7 @@
     <t>Fleet_Planning_Specialist,Vehicle_manager</t>
   </si>
   <si>
-    <t>Head of UserRelationships</t>
+    <t>Head of User_Relationships</t>
   </si>
   <si>
     <t>Intern_NIO_House_Specialist_Berlin</t>
@@ -1480,7 +1480,7 @@
     <t>Lead_Advisor_Training_Germany</t>
   </si>
   <si>
-    <t>Lead Advisor, UserSatisfaction  Germany</t>
+    <t>Lead Advisor, User_Satisfaction  Germany</t>
   </si>
   <si>
     <t>Lead_Advisor_Warranty</t>
@@ -1519,7 +1519,7 @@
     <t>Manager_Spare_Parts_and_Accessories</t>
   </si>
   <si>
-    <t xml:space="preserve">Manager, UserRepresentative  </t>
+    <t xml:space="preserve">Manager, User_Representative  </t>
   </si>
   <si>
     <t>Mobile_Service_Technician</t>
@@ -1705,19 +1705,19 @@
     <t>UD_Specialist</t>
   </si>
   <si>
-    <t>UserDevelopment Intern</t>
-  </si>
-  <si>
-    <t>UserRelationship Manager</t>
-  </si>
-  <si>
-    <t>UserRelationship Manager Sweden</t>
-  </si>
-  <si>
-    <t>UserRelationship Specialist</t>
-  </si>
-  <si>
-    <t>UserRepresentative</t>
+    <t>User_Development Intern</t>
+  </si>
+  <si>
+    <t>User_Relationship Manager</t>
+  </si>
+  <si>
+    <t>User_Relationship Manager Sweden</t>
+  </si>
+  <si>
+    <t>User_Relationship Specialist</t>
+  </si>
+  <si>
+    <t>User_Representative</t>
   </si>
   <si>
     <t>Vehicle_Management_Manager,Vehicle_manager</t>
@@ -1756,7 +1756,7 @@
     <t>Market_Entry_PMO_Team</t>
   </si>
   <si>
-    <t>Regional_Operations_Support_Team</t>
+    <t xml:space="preserve">Regional_Operations_Support_Team </t>
   </si>
   <si>
     <t>European_Business</t>
@@ -1768,7 +1768,7 @@
     <t>UserDevelopment_Team_Germany_Company</t>
   </si>
   <si>
-    <t>Digital_Support_PMO_Team</t>
+    <t xml:space="preserve">Digital_Support_PMO_Team </t>
   </si>
   <si>
     <t>Service_Operations_Team_Denmark_Company</t>
@@ -1810,7 +1810,7 @@
     <t>Revenue_Management_Team</t>
   </si>
   <si>
-    <t>Service_Coordinator_Team</t>
+    <t xml:space="preserve">Service_Coordinator _Team </t>
   </si>
   <si>
     <t>NIO_Germany_Company</t>
@@ -1912,7 +1912,7 @@
     <t>Senior Manager, Digital Support  PMO Team &amp; Lead_Program_Manager / 高级经理，数字化支持项目管理团队 &amp; 资深项目经理</t>
   </si>
   <si>
-    <t>Head of UserRelations Team  &amp; Lead Analyst, Market &amp; UserResearch / 用户关系团队负责人 &amp;  资深分析师，市场及用户研究</t>
+    <t>Head of User_Relations Team  &amp; Lead Analyst, Market &amp; User_Research / 用户关系团队负责人 &amp;  资深分析师，市场及用户研究</t>
   </si>
   <si>
     <t>Country_General_Manager_Norway_Company / 国家公司总经理，挪威公司</t>
@@ -1945,7 +1945,7 @@
     <t>Analyst_Business_Planning /  分析师，业务规划</t>
   </si>
   <si>
-    <t>Analyst, Market &amp; User Research / 分析师，市场及用户研究</t>
+    <t>Analyst, Market &amp; User_ Research / 分析师，市场及用户研究</t>
   </si>
   <si>
     <t>Associate_PMO / 助理PMO</t>
@@ -2038,10 +2038,10 @@
     <t>Manager, Fellow South Germany</t>
   </si>
   <si>
-    <t>Manager, UserRepresentative  Berlin</t>
-  </si>
-  <si>
-    <t>Manager, UserRepresentative  Hamburg</t>
+    <t>Manager, User_Representative  Berlin</t>
+  </si>
+  <si>
+    <t>Manager, User_Representative  Hamburg</t>
   </si>
   <si>
     <t>Sales_Advisor, Stavanger</t>
@@ -2053,16 +2053,16 @@
     <t>Specialist_Vehicle_Operation</t>
   </si>
   <si>
-    <t>UserRepresentative Berlin</t>
-  </si>
-  <si>
-    <t>UserRepresentative, Düsseldorf</t>
-  </si>
-  <si>
-    <t>UserRepresentative, Essen</t>
-  </si>
-  <si>
-    <t>UserRepresentative, Stuttgart</t>
+    <t>User_Representative Berlin</t>
+  </si>
+  <si>
+    <t>User_Representative, Düsseldorf</t>
+  </si>
+  <si>
+    <t>User_Representative, Essen</t>
+  </si>
+  <si>
+    <t>User_Representative, Stuttgart</t>
   </si>
   <si>
     <t>Vehicle_Management_Manager</t>
